--- a/extra/excels/Activity_活动表.xlsx
+++ b/extra/excels/Activity_活动表.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="185">
   <si>
     <t>主键id</t>
   </si>
@@ -426,10 +426,10 @@
     <t>cs</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>活动任务列表标签专用</t>
@@ -768,9 +768,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -820,9 +820,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -834,10 +842,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,14 +861,6 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,6 +880,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -886,11 +903,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,14 +927,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -935,22 +950,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,7 +1042,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,31 +1144,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,55 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,67 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,6 +1217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,6 +1266,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1277,15 +1286,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,8 +1308,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,25 +1348,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,16 +1366,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,112 +1387,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1921,11 +1921,11 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2281,43 +2281,77 @@
         <v>72</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="F5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="K5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="U5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="V5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="W5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
+      <c r="X5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="AB5" s="36"/>
     </row>
     <row r="6" s="29" customFormat="1" customHeight="1" spans="1:27">

--- a/extra/excels/Activity_活动表.xlsx
+++ b/extra/excels/Activity_活动表.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="183">
   <si>
     <t>主键id</t>
   </si>
@@ -424,12 +424,6 @@
   </si>
   <si>
     <t>cs</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>活动任务列表标签专用</t>
@@ -813,45 +807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,9 +820,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,22 +858,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,10 +879,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,8 +912,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,6 +929,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,7 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1060,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1114,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,31 +1192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,115 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,26 +1245,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,8 +1287,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,6 +1298,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,10 +1348,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,133 +1360,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1921,11 +1915,11 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2280,78 +2274,32 @@
       <c r="C5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>72</v>
-      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
       <c r="AB5" s="36"/>
     </row>
     <row r="6" s="29" customFormat="1" customHeight="1" spans="1:27">
@@ -2359,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
@@ -2377,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J6" s="38">
         <v>1</v>
@@ -2435,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="38">
         <v>2</v>
@@ -2453,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" s="38">
         <v>1</v>
@@ -2511,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="38">
         <v>3</v>
@@ -2529,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J8" s="38">
         <v>1</v>
@@ -2587,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="38">
         <v>4</v>
@@ -2605,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" s="38">
         <v>1</v>
@@ -2663,7 +2611,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
@@ -2681,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="38">
         <v>1</v>
@@ -2702,10 +2650,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="38">
         <v>1</v>
@@ -2729,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="Y10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="AA10" s="29">
         <v>0</v>
@@ -2746,7 +2694,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="38">
         <v>1</v>
@@ -2764,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" s="38">
         <v>1</v>
@@ -2785,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="38">
         <v>1</v>
@@ -2812,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="X11" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y11" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA11" s="29">
         <v>11039</v>
@@ -2830,7 +2778,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="38">
         <v>1</v>
@@ -2848,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" s="38">
         <v>1</v>
@@ -2869,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="38">
         <v>1</v>
@@ -2896,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y12" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z12" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA12" s="29">
         <v>0</v>
@@ -2936,72 +2884,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="22">
         <v>42926</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="22">
         <v>42962</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="22">
         <v>42973</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="25">
         <v>42994</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3084,10 +3032,10 @@
         <v>70</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>70</v>
@@ -3111,19 +3059,19 @@
         <v>69</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>70</v>
@@ -3201,323 +3149,323 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="L3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="M3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="V3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="W3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="L4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="M4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="U4" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="V4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="W4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="L5" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="M5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="S5" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="T5" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="V5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="W5" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="X5" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -3534,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -3641,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" s="13">
         <v>2</v>
@@ -3748,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" s="14">
         <v>3</v>
@@ -3855,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" s="17">
         <v>3</v>
@@ -3962,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" s="17">
         <v>3</v>
@@ -4069,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>

--- a/extra/excels/Activity_活动表.xlsx
+++ b/extra/excels/Activity_活动表.xlsx
@@ -762,9 +762,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -806,17 +806,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,22 +829,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,6 +845,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,7 +875,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,24 +905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -928,15 +922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,6 +931,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,7 +1036,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1168,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,139 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,13 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,8 +1248,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,6 +1269,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1280,15 +1295,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,17 +1323,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,10 +1348,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1360,133 +1360,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1919,7 +1919,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
